--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ноутбук</t>
   </si>
@@ -32,7 +32,10 @@
     <t>Штаны</t>
   </si>
   <si>
-    <t>Шорты</t>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Стол</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -175,10 +178,24 @@
         <v>6</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -12,7 +12,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Tag ID</t>
+  </si>
   <si>
     <t>Ноутбук</t>
   </si>
@@ -35,7 +47,7 @@
     <t>Чайник</t>
   </si>
   <si>
-    <t>Стол</t>
+    <t>сморип</t>
   </si>
 </sst>
 </file>
@@ -80,91 +92,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n" s="0">
-        <v>1.0</v>
+      <c r="A1" t="s" s="0">
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" t="n" s="0">
         <v>2.0</v>
@@ -172,29 +184,43 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="D8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>999.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>
